--- a/data/combined_data.xlsx
+++ b/data/combined_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$858</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$878</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T858"/>
+  <dimension ref="A1:T888"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
+      <selection activeCell="C860" sqref="C860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51005,8 +51005,668 @@
         <v>1524351</v>
       </c>
     </row>
+    <row r="859" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A859" s="2"/>
+      <c r="B859" s="2"/>
+      <c r="C859" s="2"/>
+      <c r="D859" s="2"/>
+      <c r="E859" s="2"/>
+      <c r="F859" s="2"/>
+      <c r="G859" s="2"/>
+      <c r="H859" s="2"/>
+      <c r="I859" s="2"/>
+      <c r="J859" s="2"/>
+      <c r="K859" s="2"/>
+      <c r="L859" s="2"/>
+      <c r="M859" s="2"/>
+      <c r="N859" s="2"/>
+      <c r="O859" s="2"/>
+      <c r="P859" s="2"/>
+      <c r="Q859" s="2"/>
+      <c r="R859" s="2"/>
+      <c r="S859" s="2"/>
+      <c r="T859" s="2"/>
+    </row>
+    <row r="860" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A860" s="2"/>
+      <c r="B860" s="2"/>
+      <c r="C860" s="2"/>
+      <c r="D860" s="2"/>
+      <c r="E860" s="2"/>
+      <c r="F860" s="2"/>
+      <c r="G860" s="2"/>
+      <c r="H860" s="2"/>
+      <c r="I860" s="2"/>
+      <c r="J860" s="2"/>
+      <c r="K860" s="2"/>
+      <c r="L860" s="2"/>
+      <c r="M860" s="2"/>
+      <c r="N860" s="2"/>
+      <c r="O860" s="2"/>
+      <c r="P860" s="2"/>
+      <c r="Q860" s="2"/>
+      <c r="R860" s="2"/>
+      <c r="S860" s="2"/>
+      <c r="T860" s="2"/>
+    </row>
+    <row r="861" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A861" s="2"/>
+      <c r="B861" s="2"/>
+      <c r="C861" s="2"/>
+      <c r="D861" s="2"/>
+      <c r="E861" s="2"/>
+      <c r="F861" s="2"/>
+      <c r="G861" s="2"/>
+      <c r="H861" s="2"/>
+      <c r="I861" s="2"/>
+      <c r="J861" s="2"/>
+      <c r="K861" s="2"/>
+      <c r="L861" s="2"/>
+      <c r="M861" s="2"/>
+      <c r="N861" s="2"/>
+      <c r="O861" s="2"/>
+      <c r="P861" s="2"/>
+      <c r="Q861" s="2"/>
+      <c r="R861" s="2"/>
+      <c r="S861" s="2"/>
+      <c r="T861" s="2"/>
+    </row>
+    <row r="862" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A862" s="2"/>
+      <c r="B862" s="2"/>
+      <c r="C862" s="2"/>
+      <c r="D862" s="2"/>
+      <c r="E862" s="2"/>
+      <c r="F862" s="2"/>
+      <c r="G862" s="2"/>
+      <c r="H862" s="2"/>
+      <c r="I862" s="2"/>
+      <c r="J862" s="2"/>
+      <c r="K862" s="2"/>
+      <c r="L862" s="2"/>
+      <c r="M862" s="2"/>
+      <c r="N862" s="2"/>
+      <c r="O862" s="2"/>
+      <c r="P862" s="2"/>
+      <c r="Q862" s="2"/>
+      <c r="R862" s="2"/>
+      <c r="S862" s="2"/>
+      <c r="T862" s="2"/>
+    </row>
+    <row r="863" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A863" s="2"/>
+      <c r="B863" s="2"/>
+      <c r="C863" s="2"/>
+      <c r="D863" s="2"/>
+      <c r="E863" s="2"/>
+      <c r="F863" s="2"/>
+      <c r="G863" s="2"/>
+      <c r="H863" s="2"/>
+      <c r="I863" s="2"/>
+      <c r="J863" s="2"/>
+      <c r="K863" s="2"/>
+      <c r="L863" s="2"/>
+      <c r="M863" s="2"/>
+      <c r="N863" s="2"/>
+      <c r="O863" s="2"/>
+      <c r="P863" s="2"/>
+      <c r="Q863" s="2"/>
+      <c r="R863" s="2"/>
+      <c r="S863" s="2"/>
+      <c r="T863" s="2"/>
+    </row>
+    <row r="864" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A864" s="2"/>
+      <c r="B864" s="2"/>
+      <c r="C864" s="2"/>
+      <c r="D864" s="2"/>
+      <c r="E864" s="2"/>
+      <c r="F864" s="2"/>
+      <c r="G864" s="2"/>
+      <c r="H864" s="2"/>
+      <c r="I864" s="2"/>
+      <c r="J864" s="2"/>
+      <c r="K864" s="2"/>
+      <c r="L864" s="2"/>
+      <c r="M864" s="2"/>
+      <c r="N864" s="2"/>
+      <c r="O864" s="2"/>
+      <c r="P864" s="2"/>
+      <c r="Q864" s="2"/>
+      <c r="R864" s="2"/>
+      <c r="S864" s="2"/>
+      <c r="T864" s="2"/>
+    </row>
+    <row r="865" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A865" s="2"/>
+      <c r="B865" s="2"/>
+      <c r="C865" s="2"/>
+      <c r="D865" s="2"/>
+      <c r="E865" s="2"/>
+      <c r="F865" s="2"/>
+      <c r="G865" s="2"/>
+      <c r="H865" s="2"/>
+      <c r="I865" s="2"/>
+      <c r="J865" s="2"/>
+      <c r="K865" s="2"/>
+      <c r="L865" s="2"/>
+      <c r="M865" s="2"/>
+      <c r="N865" s="2"/>
+      <c r="O865" s="2"/>
+      <c r="P865" s="2"/>
+      <c r="Q865" s="2"/>
+      <c r="R865" s="2"/>
+      <c r="S865" s="2"/>
+      <c r="T865" s="2"/>
+    </row>
+    <row r="866" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A866" s="2"/>
+      <c r="B866" s="2"/>
+      <c r="C866" s="2"/>
+      <c r="D866" s="2"/>
+      <c r="E866" s="2"/>
+      <c r="F866" s="2"/>
+      <c r="G866" s="2"/>
+      <c r="H866" s="2"/>
+      <c r="I866" s="2"/>
+      <c r="J866" s="2"/>
+      <c r="K866" s="2"/>
+      <c r="L866" s="2"/>
+      <c r="M866" s="2"/>
+      <c r="N866" s="2"/>
+      <c r="O866" s="2"/>
+      <c r="P866" s="2"/>
+      <c r="Q866" s="2"/>
+      <c r="R866" s="2"/>
+      <c r="S866" s="2"/>
+      <c r="T866" s="2"/>
+    </row>
+    <row r="867" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A867" s="2"/>
+      <c r="B867" s="2"/>
+      <c r="C867" s="2"/>
+      <c r="D867" s="2"/>
+      <c r="E867" s="2"/>
+      <c r="F867" s="2"/>
+      <c r="G867" s="2"/>
+      <c r="H867" s="2"/>
+      <c r="I867" s="2"/>
+      <c r="J867" s="2"/>
+      <c r="K867" s="2"/>
+      <c r="L867" s="2"/>
+      <c r="M867" s="2"/>
+      <c r="N867" s="2"/>
+      <c r="O867" s="2"/>
+      <c r="P867" s="2"/>
+      <c r="Q867" s="2"/>
+      <c r="R867" s="2"/>
+      <c r="S867" s="2"/>
+      <c r="T867" s="2"/>
+    </row>
+    <row r="868" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A868" s="2"/>
+      <c r="B868" s="2"/>
+      <c r="C868" s="2"/>
+      <c r="D868" s="2"/>
+      <c r="E868" s="2"/>
+      <c r="F868" s="2"/>
+      <c r="G868" s="2"/>
+      <c r="H868" s="2"/>
+      <c r="I868" s="2"/>
+      <c r="J868" s="2"/>
+      <c r="K868" s="2"/>
+      <c r="L868" s="2"/>
+      <c r="M868" s="2"/>
+      <c r="N868" s="2"/>
+      <c r="O868" s="2"/>
+      <c r="P868" s="2"/>
+      <c r="Q868" s="2"/>
+      <c r="R868" s="2"/>
+      <c r="S868" s="2"/>
+      <c r="T868" s="2"/>
+    </row>
+    <row r="869" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A869" s="2"/>
+      <c r="B869" s="2"/>
+      <c r="C869" s="2"/>
+      <c r="D869" s="2"/>
+      <c r="E869" s="2"/>
+      <c r="F869" s="2"/>
+      <c r="G869" s="2"/>
+      <c r="H869" s="2"/>
+      <c r="I869" s="2"/>
+      <c r="J869" s="2"/>
+      <c r="K869" s="2"/>
+      <c r="L869" s="2"/>
+      <c r="M869" s="2"/>
+      <c r="N869" s="2"/>
+      <c r="O869" s="2"/>
+      <c r="P869" s="2"/>
+      <c r="Q869" s="2"/>
+      <c r="R869" s="2"/>
+      <c r="S869" s="2"/>
+      <c r="T869" s="2"/>
+    </row>
+    <row r="870" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A870" s="2"/>
+      <c r="B870" s="2"/>
+      <c r="C870" s="2"/>
+      <c r="D870" s="2"/>
+      <c r="E870" s="2"/>
+      <c r="F870" s="2"/>
+      <c r="G870" s="2"/>
+      <c r="H870" s="2"/>
+      <c r="I870" s="2"/>
+      <c r="J870" s="2"/>
+      <c r="K870" s="2"/>
+      <c r="L870" s="2"/>
+      <c r="M870" s="2"/>
+      <c r="N870" s="2"/>
+      <c r="O870" s="2"/>
+      <c r="P870" s="2"/>
+      <c r="Q870" s="2"/>
+      <c r="R870" s="2"/>
+      <c r="S870" s="2"/>
+      <c r="T870" s="2"/>
+    </row>
+    <row r="871" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A871" s="2"/>
+      <c r="B871" s="2"/>
+      <c r="C871" s="2"/>
+      <c r="D871" s="2"/>
+      <c r="E871" s="2"/>
+      <c r="F871" s="2"/>
+      <c r="G871" s="2"/>
+      <c r="H871" s="2"/>
+      <c r="I871" s="2"/>
+      <c r="J871" s="2"/>
+      <c r="K871" s="2"/>
+      <c r="L871" s="2"/>
+      <c r="M871" s="2"/>
+      <c r="N871" s="2"/>
+      <c r="O871" s="2"/>
+      <c r="P871" s="2"/>
+      <c r="Q871" s="2"/>
+      <c r="R871" s="2"/>
+      <c r="S871" s="2"/>
+      <c r="T871" s="2"/>
+    </row>
+    <row r="872" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A872" s="2"/>
+      <c r="B872" s="2"/>
+      <c r="C872" s="2"/>
+      <c r="D872" s="2"/>
+      <c r="E872" s="2"/>
+      <c r="F872" s="2"/>
+      <c r="G872" s="2"/>
+      <c r="H872" s="2"/>
+      <c r="I872" s="2"/>
+      <c r="J872" s="2"/>
+      <c r="K872" s="2"/>
+      <c r="L872" s="2"/>
+      <c r="M872" s="2"/>
+      <c r="N872" s="2"/>
+      <c r="O872" s="2"/>
+      <c r="P872" s="2"/>
+      <c r="Q872" s="2"/>
+      <c r="R872" s="2"/>
+      <c r="S872" s="2"/>
+      <c r="T872" s="2"/>
+    </row>
+    <row r="873" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A873" s="2"/>
+      <c r="B873" s="2"/>
+      <c r="C873" s="2"/>
+      <c r="D873" s="2"/>
+      <c r="E873" s="2"/>
+      <c r="F873" s="2"/>
+      <c r="G873" s="2"/>
+      <c r="H873" s="2"/>
+      <c r="I873" s="2"/>
+      <c r="J873" s="2"/>
+      <c r="K873" s="2"/>
+      <c r="L873" s="2"/>
+      <c r="M873" s="2"/>
+      <c r="N873" s="2"/>
+      <c r="O873" s="2"/>
+      <c r="P873" s="2"/>
+      <c r="Q873" s="2"/>
+      <c r="R873" s="2"/>
+      <c r="S873" s="2"/>
+      <c r="T873" s="2"/>
+    </row>
+    <row r="874" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A874" s="2"/>
+      <c r="B874" s="2"/>
+      <c r="C874" s="2"/>
+      <c r="D874" s="2"/>
+      <c r="E874" s="2"/>
+      <c r="F874" s="2"/>
+      <c r="G874" s="2"/>
+      <c r="H874" s="2"/>
+      <c r="I874" s="2"/>
+      <c r="J874" s="2"/>
+      <c r="K874" s="2"/>
+      <c r="L874" s="2"/>
+      <c r="M874" s="2"/>
+      <c r="N874" s="2"/>
+      <c r="O874" s="2"/>
+      <c r="P874" s="2"/>
+      <c r="Q874" s="2"/>
+      <c r="R874" s="2"/>
+      <c r="S874" s="2"/>
+      <c r="T874" s="2"/>
+    </row>
+    <row r="875" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A875" s="2"/>
+      <c r="B875" s="2"/>
+      <c r="C875" s="2"/>
+      <c r="D875" s="2"/>
+      <c r="E875" s="2"/>
+      <c r="F875" s="2"/>
+      <c r="G875" s="2"/>
+      <c r="H875" s="2"/>
+      <c r="I875" s="2"/>
+      <c r="J875" s="2"/>
+      <c r="K875" s="2"/>
+      <c r="L875" s="2"/>
+      <c r="M875" s="2"/>
+      <c r="N875" s="2"/>
+      <c r="O875" s="2"/>
+      <c r="P875" s="2"/>
+      <c r="Q875" s="2"/>
+      <c r="R875" s="2"/>
+      <c r="S875" s="2"/>
+      <c r="T875" s="2"/>
+    </row>
+    <row r="876" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A876" s="2"/>
+      <c r="B876" s="2"/>
+      <c r="C876" s="2"/>
+      <c r="D876" s="2"/>
+      <c r="E876" s="2"/>
+      <c r="F876" s="2"/>
+      <c r="G876" s="2"/>
+      <c r="H876" s="2"/>
+      <c r="I876" s="2"/>
+      <c r="J876" s="2"/>
+      <c r="K876" s="2"/>
+      <c r="L876" s="2"/>
+      <c r="M876" s="2"/>
+      <c r="N876" s="2"/>
+      <c r="O876" s="2"/>
+      <c r="P876" s="2"/>
+      <c r="Q876" s="2"/>
+      <c r="R876" s="2"/>
+      <c r="S876" s="2"/>
+      <c r="T876" s="2"/>
+    </row>
+    <row r="877" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A877" s="2"/>
+      <c r="B877" s="2"/>
+      <c r="C877" s="2"/>
+      <c r="D877" s="2"/>
+      <c r="E877" s="2"/>
+      <c r="F877" s="2"/>
+      <c r="G877" s="2"/>
+      <c r="H877" s="2"/>
+      <c r="I877" s="2"/>
+      <c r="J877" s="2"/>
+      <c r="K877" s="2"/>
+      <c r="L877" s="2"/>
+      <c r="M877" s="2"/>
+      <c r="N877" s="2"/>
+      <c r="O877" s="2"/>
+      <c r="P877" s="2"/>
+      <c r="Q877" s="2"/>
+      <c r="R877" s="2"/>
+      <c r="S877" s="2"/>
+      <c r="T877" s="2"/>
+    </row>
+    <row r="878" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A878" s="2"/>
+      <c r="B878" s="2"/>
+      <c r="C878" s="2"/>
+      <c r="D878" s="2"/>
+      <c r="E878" s="2"/>
+      <c r="F878" s="2"/>
+      <c r="G878" s="2"/>
+      <c r="H878" s="2"/>
+      <c r="I878" s="2"/>
+      <c r="J878" s="2"/>
+      <c r="K878" s="2"/>
+      <c r="L878" s="2"/>
+      <c r="M878" s="2"/>
+      <c r="N878" s="2"/>
+      <c r="O878" s="2"/>
+      <c r="P878" s="2"/>
+      <c r="Q878" s="2"/>
+      <c r="R878" s="2"/>
+      <c r="S878" s="2"/>
+      <c r="T878" s="2"/>
+    </row>
+    <row r="879" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A879" s="2"/>
+      <c r="B879" s="2"/>
+      <c r="C879" s="2"/>
+      <c r="D879" s="2"/>
+      <c r="E879" s="2"/>
+      <c r="F879" s="2"/>
+      <c r="G879" s="2"/>
+      <c r="H879" s="2"/>
+      <c r="I879" s="2"/>
+      <c r="J879" s="2"/>
+      <c r="K879" s="2"/>
+      <c r="L879" s="2"/>
+      <c r="M879" s="2"/>
+      <c r="N879" s="2"/>
+      <c r="O879" s="2"/>
+      <c r="P879" s="2"/>
+      <c r="Q879" s="2"/>
+      <c r="R879" s="2"/>
+      <c r="S879" s="2"/>
+      <c r="T879" s="2"/>
+    </row>
+    <row r="880" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A880" s="2"/>
+      <c r="B880" s="2"/>
+      <c r="C880" s="2"/>
+      <c r="D880" s="2"/>
+      <c r="E880" s="2"/>
+      <c r="F880" s="2"/>
+      <c r="G880" s="2"/>
+      <c r="H880" s="2"/>
+      <c r="I880" s="2"/>
+      <c r="J880" s="2"/>
+      <c r="K880" s="2"/>
+      <c r="L880" s="2"/>
+      <c r="M880" s="2"/>
+      <c r="N880" s="2"/>
+      <c r="O880" s="2"/>
+      <c r="P880" s="2"/>
+      <c r="Q880" s="2"/>
+      <c r="R880" s="2"/>
+      <c r="S880" s="2"/>
+      <c r="T880" s="2"/>
+    </row>
+    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A881" s="2"/>
+      <c r="B881" s="2"/>
+      <c r="C881" s="2"/>
+      <c r="D881" s="2"/>
+      <c r="E881" s="2"/>
+      <c r="F881" s="2"/>
+      <c r="G881" s="2"/>
+      <c r="H881" s="2"/>
+      <c r="I881" s="2"/>
+      <c r="J881" s="2"/>
+      <c r="K881" s="2"/>
+      <c r="L881" s="2"/>
+      <c r="M881" s="2"/>
+      <c r="N881" s="2"/>
+      <c r="O881" s="2"/>
+      <c r="P881" s="2"/>
+      <c r="Q881" s="2"/>
+      <c r="R881" s="2"/>
+      <c r="S881" s="2"/>
+      <c r="T881" s="2"/>
+    </row>
+    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A882" s="2"/>
+      <c r="B882" s="2"/>
+      <c r="C882" s="2"/>
+      <c r="D882" s="2"/>
+      <c r="E882" s="2"/>
+      <c r="F882" s="2"/>
+      <c r="G882" s="2"/>
+      <c r="H882" s="2"/>
+      <c r="I882" s="2"/>
+      <c r="J882" s="2"/>
+      <c r="K882" s="2"/>
+      <c r="L882" s="2"/>
+      <c r="M882" s="2"/>
+      <c r="N882" s="2"/>
+      <c r="O882" s="2"/>
+      <c r="P882" s="2"/>
+      <c r="Q882" s="2"/>
+      <c r="R882" s="2"/>
+      <c r="S882" s="2"/>
+      <c r="T882" s="2"/>
+    </row>
+    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A883" s="2"/>
+      <c r="B883" s="2"/>
+      <c r="C883" s="2"/>
+      <c r="D883" s="2"/>
+      <c r="E883" s="2"/>
+      <c r="F883" s="2"/>
+      <c r="G883" s="2"/>
+      <c r="H883" s="2"/>
+      <c r="I883" s="2"/>
+      <c r="J883" s="2"/>
+      <c r="K883" s="2"/>
+      <c r="L883" s="2"/>
+      <c r="M883" s="2"/>
+      <c r="N883" s="2"/>
+      <c r="O883" s="2"/>
+      <c r="P883" s="2"/>
+      <c r="Q883" s="2"/>
+      <c r="R883" s="2"/>
+      <c r="S883" s="2"/>
+      <c r="T883" s="2"/>
+    </row>
+    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A884" s="2"/>
+      <c r="B884" s="2"/>
+      <c r="C884" s="2"/>
+      <c r="D884" s="2"/>
+      <c r="E884" s="2"/>
+      <c r="F884" s="2"/>
+      <c r="G884" s="2"/>
+      <c r="H884" s="2"/>
+      <c r="I884" s="2"/>
+      <c r="J884" s="2"/>
+      <c r="K884" s="2"/>
+      <c r="L884" s="2"/>
+      <c r="M884" s="2"/>
+      <c r="N884" s="2"/>
+      <c r="O884" s="2"/>
+      <c r="P884" s="2"/>
+      <c r="Q884" s="2"/>
+      <c r="R884" s="2"/>
+      <c r="S884" s="2"/>
+      <c r="T884" s="2"/>
+    </row>
+    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A885" s="2"/>
+      <c r="B885" s="2"/>
+      <c r="C885" s="2"/>
+      <c r="D885" s="2"/>
+      <c r="E885" s="2"/>
+      <c r="F885" s="2"/>
+      <c r="G885" s="2"/>
+      <c r="H885" s="2"/>
+      <c r="I885" s="2"/>
+      <c r="J885" s="2"/>
+      <c r="K885" s="2"/>
+      <c r="L885" s="2"/>
+      <c r="M885" s="2"/>
+      <c r="N885" s="2"/>
+      <c r="O885" s="2"/>
+      <c r="P885" s="2"/>
+      <c r="Q885" s="2"/>
+      <c r="R885" s="2"/>
+      <c r="S885" s="2"/>
+      <c r="T885" s="2"/>
+    </row>
+    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A886" s="2"/>
+      <c r="B886" s="2"/>
+      <c r="C886" s="2"/>
+      <c r="D886" s="2"/>
+      <c r="E886" s="2"/>
+      <c r="F886" s="2"/>
+      <c r="G886" s="2"/>
+      <c r="H886" s="2"/>
+      <c r="I886" s="2"/>
+      <c r="J886" s="2"/>
+      <c r="K886" s="2"/>
+      <c r="L886" s="2"/>
+      <c r="M886" s="2"/>
+      <c r="N886" s="2"/>
+      <c r="O886" s="2"/>
+      <c r="P886" s="2"/>
+      <c r="Q886" s="2"/>
+      <c r="R886" s="2"/>
+      <c r="S886" s="2"/>
+      <c r="T886" s="2"/>
+    </row>
+    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A887" s="2"/>
+      <c r="B887" s="2"/>
+      <c r="C887" s="2"/>
+      <c r="D887" s="2"/>
+      <c r="E887" s="2"/>
+      <c r="F887" s="2"/>
+      <c r="G887" s="2"/>
+      <c r="H887" s="2"/>
+      <c r="I887" s="2"/>
+      <c r="J887" s="2"/>
+      <c r="K887" s="2"/>
+      <c r="L887" s="2"/>
+      <c r="M887" s="2"/>
+      <c r="N887" s="2"/>
+      <c r="O887" s="2"/>
+      <c r="P887" s="2"/>
+      <c r="Q887" s="2"/>
+      <c r="R887" s="2"/>
+      <c r="S887" s="2"/>
+      <c r="T887" s="2"/>
+    </row>
+    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A888" s="2"/>
+      <c r="B888" s="2"/>
+      <c r="C888" s="2"/>
+      <c r="D888" s="2"/>
+      <c r="E888" s="2"/>
+      <c r="F888" s="2"/>
+      <c r="G888" s="2"/>
+      <c r="H888" s="2"/>
+      <c r="I888" s="2"/>
+      <c r="J888" s="2"/>
+      <c r="K888" s="2"/>
+      <c r="L888" s="2"/>
+      <c r="M888" s="2"/>
+      <c r="N888" s="2"/>
+      <c r="O888" s="2"/>
+      <c r="P888" s="2"/>
+      <c r="Q888" s="2"/>
+      <c r="R888" s="2"/>
+      <c r="S888" s="2"/>
+      <c r="T888" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T858"/>
+  <autoFilter ref="A1:T878"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
